--- a/output_data/All_2024-10-13.xlsx
+++ b/output_data/All_2024-10-13.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,15 +25,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00333333"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,23 +85,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +485,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -584,12 +644,12 @@
           <t>('Burkina Faso', '1TIW')</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -604,7 +664,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -614,12 +674,6 @@
           <t>('Burundi', '2TIH')</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -665,7 +719,7 @@
           <t>('Tanzania U20', '1TIW')</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>7 - 0</t>
         </is>
@@ -763,7 +817,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -856,7 +910,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -949,7 +1003,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -964,7 +1018,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1042,7 +1096,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1057,7 +1111,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1135,7 +1189,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1150,7 +1204,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1223,12 +1277,12 @@
           <t>('Enyimba', '1TIW')</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1243,7 +1297,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1321,7 +1375,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1336,7 +1390,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1507,7 +1561,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1522,7 +1576,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1600,7 +1654,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1615,7 +1669,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1693,7 +1747,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1708,7 +1762,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1786,7 +1840,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1972,7 +2026,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1987,7 +2041,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2065,7 +2119,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2158,7 +2212,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -2173,7 +2227,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2251,7 +2305,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2266,7 +2320,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2344,7 +2398,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2530,7 +2584,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -2545,7 +2599,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2623,7 +2677,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2638,7 +2692,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2711,7 +2765,7 @@
           <t>('Musongati', '1TIH')</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>1 - 4</t>
         </is>
@@ -2809,7 +2863,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2995,7 +3049,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3010,7 +3064,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3083,12 +3137,12 @@
           <t>('D. Puerto Montt', '1TIW')</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3103,7 +3157,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3181,7 +3235,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3319,95 +3373,95 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/Czty4HGH/#/match-summary</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
         <is>
           <t>D. Puerto Montt</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="7" t="inlineStr">
         <is>
           <t>Trasandino</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="7" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="7" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="7" t="inlineStr">
         <is>
           <t>2.60</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="7" t="inlineStr">
         <is>
           <t>['D. Puerto Montt', 'Huachipato']</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
         <is>
           <t>('Huachipato', '1TIH')</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="8" t="inlineStr">
         <is>
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>['Trasandino', 'Real San Joaquin']</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" s="7" t="inlineStr">
         <is>
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" s="7" t="inlineStr">
         <is>
           <t>('Real San Joaquin', '2TIH')</t>
         </is>
       </c>
-      <c r="P32" t="n">
+      <c r="P32" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
-      <c r="U32" t="b">
+      <c r="T32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3470,7 +3524,7 @@
           <t>['Lautaro', 'D. Concepcion']</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" s="9" t="inlineStr">
         <is>
           <t>1 - 5</t>
         </is>
@@ -3739,7 +3793,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3754,7 +3808,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3925,7 +3979,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4111,7 +4165,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4204,7 +4258,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4297,7 +4351,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -4312,7 +4366,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4483,7 +4537,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4576,7 +4630,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4664,7 +4718,7 @@
           <t>('Austria', '1TIW')</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
@@ -4807,97 +4861,98 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/SrIlgFKk/#/match-summary</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="7" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="7" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="7" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="7" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="7" t="inlineStr">
         <is>
           <t>['Austria', 'Kazakhstan']</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" s="7" t="inlineStr">
         <is>
           <t>('Kazakhstan', '1TIH')</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" s="10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="7" t="inlineStr">
         <is>
           <t>['Norway', 'Slovenia']</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" s="7" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O48" s="7" t="inlineStr">
         <is>
           <t>('Slovenia', '2TIH')</t>
         </is>
       </c>
-      <c r="P48" t="n">
+      <c r="P48" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
+      <c r="Q48" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="T48" t="b">
-        <v>0</v>
-      </c>
-      <c r="U48" t="b">
-        <v>0</v>
-      </c>
+      <c r="T48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4948,7 +5003,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K49" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4963,7 +5018,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5041,7 +5096,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -5056,7 +5111,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5227,7 +5282,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K52" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5242,7 +5297,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5320,7 +5375,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K53" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5335,7 +5390,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5365,97 +5420,98 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/j7IpRDQ6/#/match-summary</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Faroe Islands U17 W</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="11" t="inlineStr">
         <is>
           <t>Moldova</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="11" t="inlineStr">
         <is>
           <t>['Faroe Islands U17 W', 'Czech Republic U17 W']</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I54" s="11" t="inlineStr">
         <is>
           <t>('Czech Republic U17 W', '1TIH')</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" s="12" t="inlineStr">
         <is>
           <t>0 - 9</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" s="11" t="inlineStr">
         <is>
           <t>['Faroe Islands U17 W', 'Czech Republic U17 W']</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M54" s="12" t="inlineStr">
         <is>
           <t>0 - 9</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" s="11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O54" s="11" t="inlineStr">
         <is>
           <t>('Faroe Islands U17 W', '2TIW')</t>
         </is>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
+      <c r="Q54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="T54" t="b">
-        <v>0</v>
-      </c>
-      <c r="U54" t="b">
-        <v>0</v>
-      </c>
+      <c r="T54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5551,97 +5607,98 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="11" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/6JQy3X4e/#/match-summary</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Holstein Kiel II</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="11" t="inlineStr">
         <is>
           <t>England U17 W</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="11" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="11" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="11" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="11" t="inlineStr">
         <is>
           <t>['Holstein Kiel II', 'St. Pauli II']</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56" s="11" t="inlineStr">
         <is>
           <t>('St. Pauli II', '1TIH')</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" s="12" t="inlineStr">
         <is>
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" s="11" t="inlineStr">
         <is>
           <t>['Holstein Kiel II', 'St. Pauli II']</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" s="12" t="inlineStr">
         <is>
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" s="11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O56" s="11" t="inlineStr">
         <is>
           <t>('Holstein Kiel II', '2TIW')</t>
         </is>
       </c>
-      <c r="P56" t="n">
+      <c r="P56" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
+      <c r="Q56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S56" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="T56" t="b">
-        <v>0</v>
-      </c>
-      <c r="U56" t="b">
-        <v>0</v>
-      </c>
+      <c r="T56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11" t="n"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5687,12 +5744,12 @@
           <t>('Teutonia Ottensen', '1TIH')</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K57" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -5707,7 +5764,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5785,7 +5842,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5971,7 +6028,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6064,7 +6121,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6152,12 +6209,12 @@
           <t>('Hoffenheim W', '1TIH')</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -6172,7 +6229,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N62" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6245,7 +6302,7 @@
           <t>('Wolfsburg W', '1TIW')</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>5 - 0</t>
         </is>
@@ -6622,7 +6679,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K67" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6637,7 +6694,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N67" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6896,7 +6953,7 @@
           <t>('Kings Palace', '1TIW')</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
@@ -6989,7 +7046,7 @@
           <t>('Mighty Royals', '1TIW')</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" s="2" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
@@ -7082,12 +7139,12 @@
           <t>('Swedru All Blacks', '1TIW')</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" s="2" t="inlineStr">
         <is>
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K72" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7102,7 +7159,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7132,97 +7189,98 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/KzfRdtGG/#/match-summary</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>Future Stars</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="11" t="inlineStr">
         <is>
           <t>Swedru All Blacks</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" s="11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="11" t="inlineStr">
         <is>
           <t>['Sefwi All Stars', 'Future Stars']</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I73" s="11" t="inlineStr">
         <is>
           <t>('Sefwi All Stars', '1TIW')</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" s="11" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K73" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" s="11" t="inlineStr">
         <is>
           <t>['Swedru All Blacks', 'Elmina Sharks']</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M73" s="12" t="inlineStr">
         <is>
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N73" s="11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O73" s="11" t="inlineStr">
         <is>
           <t>('Elmina Sharks', '2TIH')</t>
         </is>
       </c>
-      <c r="P73" t="n">
+      <c r="P73" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R73" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="S73" t="n">
+      <c r="S73" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="T73" t="b">
-        <v>0</v>
-      </c>
-      <c r="U73" t="b">
-        <v>0</v>
-      </c>
+      <c r="T73" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" s="11" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7366,7 +7424,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K75" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7381,7 +7439,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N75" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7459,7 +7517,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K76" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7474,7 +7532,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N76" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7552,7 +7610,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7567,7 +7625,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N77" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7645,7 +7703,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K78" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7733,12 +7791,12 @@
           <t>('Ebusua', '1TIW')</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" s="2" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K79" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7753,7 +7811,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N79" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7924,7 +7982,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K81" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -7939,7 +7997,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N81" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8017,7 +8075,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K82" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -8032,7 +8090,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N82" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8296,7 +8354,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K85" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8389,7 +8447,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8482,7 +8540,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K87" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -8497,7 +8555,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N87" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8668,7 +8726,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K89" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -8683,7 +8741,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N89" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8761,7 +8819,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8854,7 +8912,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K91" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -8869,7 +8927,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="N91" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -8947,7 +9005,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K92" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9040,7 +9098,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K93" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9226,7 +9284,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K95" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -9241,7 +9299,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N95" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9364,97 +9422,98 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="7" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/rosRJGQH/#/match-summary</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="7" t="inlineStr">
         <is>
           <t>Pro Vercelli</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="7" t="inlineStr">
         <is>
           <t>Union Clodiense</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="7" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="7" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="7" t="inlineStr">
         <is>
           <t>2.74</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" s="7" t="inlineStr">
         <is>
           <t>['Campobasso', 'Spal']</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I97" s="7" t="inlineStr">
         <is>
           <t>('Campobasso', '1TIW')</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K97" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" s="7" t="inlineStr">
         <is>
           <t>['Campobasso', 'Spal']</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M97" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N97" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O97" s="7" t="inlineStr">
         <is>
           <t>('Campobasso', '2TIW')</t>
         </is>
       </c>
-      <c r="P97" t="n">
+      <c r="P97" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="R97" t="n">
+      <c r="R97" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="S97" t="n">
+      <c r="S97" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="T97" t="b">
-        <v>1</v>
-      </c>
-      <c r="U97" t="b">
-        <v>1</v>
-      </c>
+      <c r="T97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97" s="7" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9505,7 +9564,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K98" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -9520,7 +9579,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="N98" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9598,7 +9657,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K99" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9691,7 +9750,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K100" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9706,7 +9765,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N100" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -9922,97 +9981,98 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="7" t="n">
         <v>102</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/WAFtqV4j/#/match-summary</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="7" t="inlineStr">
         <is>
           <t>Ternana</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="7" t="inlineStr">
         <is>
           <t>Ascoli</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="7" t="inlineStr">
         <is>
           <t>1.37</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="7" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="7" t="inlineStr">
         <is>
           <t>7.75</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="7" t="inlineStr">
         <is>
           <t>['Benevento', 'Latina']</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I103" s="7" t="inlineStr">
         <is>
           <t>('Benevento', '1TIW')</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" s="8" t="inlineStr">
         <is>
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K103" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" s="7" t="inlineStr">
         <is>
           <t>['Benevento', 'Latina']</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M103" s="8" t="inlineStr">
         <is>
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="N103" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="O103" s="7" t="inlineStr">
         <is>
           <t>('Benevento', '2TIW')</t>
         </is>
       </c>
-      <c r="P103" t="n">
+      <c r="P103" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="R103" t="n">
-        <v>1</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1</v>
-      </c>
-      <c r="T103" t="b">
-        <v>1</v>
-      </c>
-      <c r="U103" t="b">
-        <v>1</v>
-      </c>
+      <c r="R103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V103" s="7" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10108,97 +10168,98 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="7" t="n">
         <v>104</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/xAc81wLH/#/match-summary</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="7" t="inlineStr">
         <is>
           <t>Avellino</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" s="7" t="inlineStr">
         <is>
           <t>Casertana</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="7" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="7" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" s="7" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="7" t="inlineStr">
         <is>
           <t>['Crotone', 'Avellino']</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="I105" s="7" t="inlineStr">
         <is>
           <t>('Crotone', '1TIW')</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J105" s="8" t="inlineStr">
         <is>
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K105" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" s="7" t="inlineStr">
         <is>
           <t>['Casertana', 'Catania']</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M105" s="7" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N105" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="O105" s="7" t="inlineStr">
         <is>
           <t>('Catania', '2TIH')</t>
         </is>
       </c>
-      <c r="P105" t="n">
+      <c r="P105" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="R105" t="n">
+      <c r="R105" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="S105" t="n">
+      <c r="S105" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="T105" t="b">
-        <v>1</v>
-      </c>
-      <c r="U105" t="b">
-        <v>1</v>
-      </c>
+      <c r="T105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V105" s="7" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10249,7 +10310,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K106" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10264,7 +10325,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N106" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10294,97 +10355,98 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="7" t="n">
         <v>106</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/hrc1Xar9/#/match-summary</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="7" t="inlineStr">
         <is>
           <t>Potenza</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" s="7" t="inlineStr">
         <is>
           <t>Foggia</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="7" t="inlineStr">
         <is>
           <t>['Metta W', 'Iecava W']</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I107" s="7" t="inlineStr">
         <is>
           <t>('Metta W', '1TIW')</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J107" s="8" t="inlineStr">
         <is>
           <t>9 - 1</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" s="7" t="inlineStr">
         <is>
           <t>['Metta W', 'Iecava W']</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="M107" s="8" t="inlineStr">
         <is>
           <t>9 - 1</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="N107" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="O107" s="7" t="inlineStr">
         <is>
           <t>('Metta W', '2TIW')</t>
         </is>
       </c>
-      <c r="P107" t="n">
+      <c r="P107" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="R107" t="n">
+      <c r="R107" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="S107" t="n">
+      <c r="S107" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="T107" t="b">
-        <v>0</v>
-      </c>
-      <c r="U107" t="b">
-        <v>0</v>
-      </c>
+      <c r="T107" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" s="7" t="n"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10621,7 +10683,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="K110" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10714,7 +10776,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10807,7 +10869,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="K112" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -10822,7 +10884,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
+      <c r="N112" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10900,7 +10962,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K113" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -10993,7 +11055,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -11086,7 +11148,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K115" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -11179,7 +11241,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -11503,97 +11565,98 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="7" t="n">
         <v>119</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/QLdhECJc/#/match-summary</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="7" t="inlineStr">
         <is>
           <t>Cerro Porteno</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" s="7" t="inlineStr">
         <is>
           <t>General Caballero JLM</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="7" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="7" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G120" s="7" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="7" t="inlineStr">
         <is>
           <t>['Chojniczanka', 'Wisla Pulawy']</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="I120" s="7" t="inlineStr">
         <is>
           <t>('Chojniczanka', '1TIW')</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K120" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" s="7" t="inlineStr">
         <is>
           <t>['Chojniczanka', 'Wisla Pulawy']</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="M120" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N120" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="O120" s="7" t="inlineStr">
         <is>
           <t>('Chojniczanka', '2TIW')</t>
         </is>
       </c>
-      <c r="P120" t="n">
+      <c r="P120" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="R120" t="n">
+      <c r="R120" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="S120" t="n">
+      <c r="S120" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="T120" t="b">
-        <v>1</v>
-      </c>
-      <c r="U120" t="b">
-        <v>1</v>
-      </c>
+      <c r="T120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V120" s="7" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11737,7 +11800,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -11752,7 +11815,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="N122" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -11830,7 +11893,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K123" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12109,7 +12172,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K126" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12197,7 +12260,7 @@
           <t>('Sochi', '1TIW')</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J127" s="2" t="inlineStr">
         <is>
           <t>5 - 0</t>
         </is>
@@ -12295,7 +12358,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K128" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12481,7 +12544,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K130" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -12496,7 +12559,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
+      <c r="N130" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12667,7 +12730,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K132" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -12682,7 +12745,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
+      <c r="N132" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12760,7 +12823,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K133" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -12946,7 +13009,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K135" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13132,7 +13195,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K137" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13142,7 +13205,7 @@
           <t>['Sepahan', 'Istiqlol Dushanbe']</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="M137" s="9" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
@@ -13411,7 +13474,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K140" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13549,97 +13612,98 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="7" t="n">
         <v>141</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/UehbO9D4/#/match-summary</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="7" t="inlineStr">
         <is>
           <t>Myda</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" s="7" t="inlineStr">
         <is>
           <t>Calvary</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" s="7" t="inlineStr">
         <is>
           <t>['Ntugasaze', 'Kiyinda Boys']</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="I142" s="7" t="inlineStr">
         <is>
           <t>('Ntugasaze', '1TIW')</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="J142" s="8" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K142" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L142" s="7" t="inlineStr">
         <is>
           <t>['Ntugasaze', 'Kiyinda Boys']</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="M142" s="7" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="N142" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="O142" s="7" t="inlineStr">
         <is>
           <t>('Ntugasaze', '2TIW')</t>
         </is>
       </c>
-      <c r="P142" t="n">
+      <c r="P142" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="Q142" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="R142" t="n">
+      <c r="R142" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="S142" t="n">
+      <c r="S142" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="T142" t="b">
-        <v>1</v>
-      </c>
-      <c r="U142" t="b">
-        <v>0</v>
-      </c>
+      <c r="T142" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U142" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V142" s="7" t="n"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -13690,7 +13754,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K143" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -13705,7 +13769,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="N143" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13783,7 +13847,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K144" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13876,7 +13940,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K145" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -13891,7 +13955,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="N145" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -13969,7 +14033,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K146" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -13984,7 +14048,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
+      <c r="N146" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14155,7 +14219,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K148" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14200,97 +14264,98 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="7" t="n">
         <v>148</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/IaXx8X9f/#/match-summary</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="7" t="inlineStr">
         <is>
           <t>Colon</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" s="7" t="inlineStr">
         <is>
           <t>Tacuarembo</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="7" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="7" t="inlineStr">
         <is>
           <t>5.60</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" s="7" t="inlineStr">
         <is>
           <t>7.38</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" s="7" t="inlineStr">
         <is>
           <t>['Columbus Crew', 'New England Revolution']</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="I149" s="7" t="inlineStr">
         <is>
           <t>('Columbus Crew', '1TIW')</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="J149" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="K149" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="L149" s="7" t="inlineStr">
         <is>
           <t>['Columbus Crew', 'New England Revolution']</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="M149" s="8" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
+      <c r="N149" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="O149" s="7" t="inlineStr">
         <is>
           <t>('Columbus Crew', '2TIW')</t>
         </is>
       </c>
-      <c r="P149" t="n">
+      <c r="P149" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="Q149" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="R149" t="n">
+      <c r="R149" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="S149" t="n">
+      <c r="S149" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="T149" t="b">
-        <v>0</v>
-      </c>
-      <c r="U149" t="b">
-        <v>0</v>
-      </c>
+      <c r="T149" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U149" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V149" s="7" t="n"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -14341,7 +14406,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K150" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14434,7 +14499,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K151" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14527,7 +14592,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K152" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14620,7 +14685,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K153" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -14635,7 +14700,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
+      <c r="N153" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14899,7 +14964,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="K156" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -14914,7 +14979,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
+      <c r="N156" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -14992,7 +15057,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K157" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -15271,7 +15336,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="K160" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -15286,7 +15351,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="N160" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -15364,7 +15429,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="K161" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -15595,97 +15660,98 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="11" t="n">
         <v>163</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/xpWUxoFt/#/match-summary</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="11" t="inlineStr">
         <is>
           <t>Swansea W</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D164" s="11" t="inlineStr">
         <is>
           <t>Aberystwyth W</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E164" s="11" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F164" s="11" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G164" s="11" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" s="11" t="inlineStr">
         <is>
           <t>['Swansea W', 'TNS W']</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="I164" s="11" t="inlineStr">
         <is>
           <t>('TNS W', '1TIH')</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J164" s="12" t="inlineStr">
         <is>
           <t>0 - 5</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="K164" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="L164" s="11" t="inlineStr">
         <is>
           <t>['Swansea W', 'TNS W']</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="M164" s="12" t="inlineStr">
         <is>
           <t>0 - 5</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
+      <c r="N164" s="11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr">
+      <c r="O164" s="11" t="inlineStr">
         <is>
           <t>('Swansea W', '2TIW')</t>
         </is>
       </c>
-      <c r="P164" t="n">
+      <c r="P164" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="Q164" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="R164" t="n">
+      <c r="R164" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="S164" t="n">
+      <c r="S164" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="T164" t="b">
-        <v>0</v>
-      </c>
-      <c r="U164" t="b">
-        <v>0</v>
-      </c>
+      <c r="T164" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U164" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V164" s="11" t="n"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -15736,7 +15802,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K165" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -15922,7 +15988,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K167" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -15937,7 +16003,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="N167" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16108,7 +16174,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="K169" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16201,7 +16267,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="K170" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16294,7 +16360,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="K171" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -16309,7 +16375,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
+      <c r="N171" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16339,97 +16405,98 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="7" t="n">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="7" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/d4yDVU5N/#/match-summary</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="7" t="inlineStr">
         <is>
           <t>Belgium U18</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" s="7" t="inlineStr">
         <is>
           <t>Saudi Arabia U18</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F172" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G172" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H172" s="7" t="inlineStr">
         <is>
           <t>['Belgium U18', 'Saudi Arabia U18']</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="I172" s="7" t="inlineStr">
         <is>
           <t>('Saudi Arabia U18', '1TIH')</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="J172" s="8" t="inlineStr">
         <is>
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="K172" s="8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="L172" s="7" t="inlineStr">
         <is>
           <t>['Belgium U18', 'Saudi Arabia U18']</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="M172" s="8" t="inlineStr">
         <is>
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
+      <c r="N172" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr">
+      <c r="O172" s="7" t="inlineStr">
         <is>
           <t>('Belgium U18', '2TIW')</t>
         </is>
       </c>
-      <c r="P172" t="n">
+      <c r="P172" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="Q172" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="R172" t="n">
+      <c r="R172" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="S172" t="n">
+      <c r="S172" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="T172" t="b">
-        <v>1</v>
-      </c>
-      <c r="U172" t="b">
-        <v>1</v>
-      </c>
+      <c r="T172" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U172" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V172" s="7" t="n"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -16480,7 +16547,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="K173" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -16495,7 +16562,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
+      <c r="N173" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16573,7 +16640,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="K174" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -16588,7 +16655,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
+      <c r="N174" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -16852,7 +16919,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K177" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -17131,7 +17198,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="K180" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -17146,7 +17213,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="N180" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -17606,7 +17673,7 @@
           <t>['Sanfrecce Hiroshima', 'Baleine Shimonoseki']</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="M185" s="9" t="inlineStr">
         <is>
           <t>11 - 2</t>
         </is>
@@ -17689,7 +17756,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="K186" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -17875,7 +17942,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="K188" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -17968,7 +18035,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="K189" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -17983,7 +18050,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr">
+      <c r="N189" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -18061,7 +18128,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="K190" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -18154,7 +18221,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="K191" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -18247,7 +18314,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="K192" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -18433,7 +18500,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="K194" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -18448,7 +18515,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr">
+      <c r="N194" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
